--- a/output/fit_clients/fit_round_331.xlsx
+++ b/output/fit_clients/fit_round_331.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1721944677.883487</v>
+        <v>1923337280.47321</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0781562186554431</v>
+        <v>0.1147964101557578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02798701761828251</v>
+        <v>0.02809369283138855</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>860972297.2411102</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2396533057.898011</v>
+        <v>1827801414.542669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15796200923891</v>
+        <v>0.1481690513038215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05049436519292715</v>
+        <v>0.0443273821539002</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1198266630.428872</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4974210330.09066</v>
+        <v>3239540731.755889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1196395930604899</v>
+        <v>0.157454521163955</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02735364465313053</v>
+        <v>0.03481658039852386</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>119</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2487105248.238897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2813159017.552176</v>
+        <v>2723682579.016984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0755050624456086</v>
+        <v>0.08655455494405911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0419643496959348</v>
+        <v>0.04405082003931515</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1406579590.998881</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2238466802.114877</v>
+        <v>1837448803.589768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09572653457336729</v>
+        <v>0.1264300683405255</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05611161073700677</v>
+        <v>0.04541073327066256</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1119233404.850305</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2050235370.888355</v>
+        <v>2400036543.043691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09796575334142665</v>
+        <v>0.07956266104207575</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03195861268346072</v>
+        <v>0.03512026214004803</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1025117741.740654</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3886323996.249385</v>
+        <v>3345518702.355054</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2175771888990153</v>
+        <v>0.2103731441061709</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02684917666572531</v>
+        <v>0.02213263801773406</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1943162146.253397</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1590313337.038314</v>
+        <v>1483640865.328178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1204268984815671</v>
+        <v>0.1571803751787063</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02881567485470861</v>
+        <v>0.03707566503544917</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>795156751.9791662</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5069664920.759122</v>
+        <v>4538955100.952942</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2129811477550516</v>
+        <v>0.1477538448568453</v>
       </c>
       <c r="G10" t="n">
-        <v>0.038748153866846</v>
+        <v>0.04575832812435875</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>139</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2534832565.077842</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3579393588.555797</v>
+        <v>3083629133.718931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1804075944115986</v>
+        <v>0.1441564263470817</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04962386625593323</v>
+        <v>0.03432913543016584</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>136</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1789696777.613293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2529501448.470948</v>
+        <v>2723095311.096714</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1915589116856058</v>
+        <v>0.1487350617627796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0439618534243972</v>
+        <v>0.0448972710837836</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>113</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1264750699.182239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4947219480.901769</v>
+        <v>3383023246.664382</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06294947437291379</v>
+        <v>0.08287565094127601</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01966733086404249</v>
+        <v>0.02199243392140898</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>111</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2473609747.276531</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3344977304.632838</v>
+        <v>2833537787.921863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1797709404789013</v>
+        <v>0.1591641822058696</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04165440243072941</v>
+        <v>0.03802695157055218</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>106</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1672488661.781492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1650300572.561626</v>
+        <v>1464129390.412065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07075972949062596</v>
+        <v>0.1017708662374998</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03046980718855052</v>
+        <v>0.04575032168572082</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>825150405.870193</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1756850948.350198</v>
+        <v>1862718451.534081</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08836306075156679</v>
+        <v>0.1045824471184493</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05012217468306989</v>
+        <v>0.05072878695838488</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>878425571.3834431</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4230384318.930131</v>
+        <v>4331478457.905871</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1569026191418857</v>
+        <v>0.1383717672839913</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04528383988585072</v>
+        <v>0.05136116201928412</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2115192182.703029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3235469573.738857</v>
+        <v>3898675180.806593</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1248791788568131</v>
+        <v>0.1514129868493416</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02535663646273398</v>
+        <v>0.02423639054011496</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>108</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1617734800.047454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1368743274.673235</v>
+        <v>1209417053.497109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1590910463733684</v>
+        <v>0.1836696872672006</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02167045348387448</v>
+        <v>0.01831469290614392</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>684371756.3362834</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2468447529.412349</v>
+        <v>2187573150.366352</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1119747091724142</v>
+        <v>0.1396731906427298</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02120990514069377</v>
+        <v>0.030359695479321</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1234223741.170538</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2050116691.53603</v>
+        <v>2058899100.065075</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07586713869605656</v>
+        <v>0.07746411357475712</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03406040675333403</v>
+        <v>0.03029481901130942</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1025058376.951004</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3202859200.166793</v>
+        <v>2526939879.457424</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1370346866939778</v>
+        <v>0.09496637723602773</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05186518405338896</v>
+        <v>0.04256967458867078</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1601429649.470501</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1441422896.928834</v>
+        <v>1433367389.471282</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1684178936333855</v>
+        <v>0.173336519634488</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05141504941332042</v>
+        <v>0.04862725859874895</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>720711444.2692908</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2962435197.822222</v>
+        <v>3109881196.926137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1052881854961992</v>
+        <v>0.1451058960076776</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03657812760658435</v>
+        <v>0.02998536565464766</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>96</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1481217636.668555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1187461105.815742</v>
+        <v>1311044083.902611</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09441004389647209</v>
+        <v>0.07659524196608454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02066579967048619</v>
+        <v>0.02487853729106513</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>593730573.7605261</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1287749352.507659</v>
+        <v>976505770.6077919</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1112289503467162</v>
+        <v>0.1227560009232317</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0384145094390388</v>
+        <v>0.03574307512325472</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>643874718.820613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4010774251.819878</v>
+        <v>4467708836.212696</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1538793441196636</v>
+        <v>0.09989107628809585</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235685168164425</v>
+        <v>0.02046248987775609</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2005387135.558649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2391748950.948874</v>
+        <v>3300950729.79682</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1398845649871654</v>
+        <v>0.1228692559754752</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03931974685189762</v>
+        <v>0.04108556119053286</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1195874433.89445</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4059853042.985363</v>
+        <v>5391176551.53751</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1320689261255737</v>
+        <v>0.1399720255224127</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04275936182024253</v>
+        <v>0.03184812979779449</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>146</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2029926534.167259</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1647112091.886817</v>
+        <v>2181459298.688857</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361600035537787</v>
+        <v>0.08864399726794664</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02932376521933739</v>
+        <v>0.02806999857930546</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>823556043.202571</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1362183250.925833</v>
+        <v>1460718124.876046</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06829257094702901</v>
+        <v>0.07286077011267113</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03695778761343172</v>
+        <v>0.05209150221551223</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>681091538.7612623</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1763085251.372099</v>
+        <v>1688329644.462466</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09231685231107789</v>
+        <v>0.08469125848403049</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03502246230181488</v>
+        <v>0.03086254104706311</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>881542748.528639</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2527792942.141603</v>
+        <v>2793837603.399297</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2037660274918011</v>
+        <v>0.1917467625305742</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04525763325133136</v>
+        <v>0.04462700884234033</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1263896506.910237</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1426344082.383984</v>
+        <v>1091003433.989243</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1163696808866709</v>
+        <v>0.07979518384047708</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02333003264853103</v>
+        <v>0.01905934077855912</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>713172009.1169766</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>832174440.1555325</v>
+        <v>1184045187.496491</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07620108222301039</v>
+        <v>0.1029696502069814</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03207344686781931</v>
+        <v>0.03185263623858828</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>416087275.4623323</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2705850101.19216</v>
+        <v>2691975311.441373</v>
       </c>
       <c r="F36" t="n">
-        <v>0.134041781153448</v>
+        <v>0.1619484828235905</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02526294701161473</v>
+        <v>0.01802596704834289</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>83</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1352925056.086164</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2477809711.02789</v>
+        <v>2104197397.506914</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1003717843659068</v>
+        <v>0.07196047236892164</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03573861036131165</v>
+        <v>0.03408632560710061</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>89</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1238904948.511541</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1372126178.087703</v>
+        <v>2133250889.509833</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07854419327280822</v>
+        <v>0.1138982137584783</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03559122861608128</v>
+        <v>0.02830037418267223</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>686063156.3677747</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2025195835.381994</v>
+        <v>1601072464.173472</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1541028398730815</v>
+        <v>0.1496466733340008</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03025551852336684</v>
+        <v>0.02081607401792007</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1012597908.414207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1144450723.272632</v>
+        <v>1513014462.404082</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1172975025714298</v>
+        <v>0.1357925438451014</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0445812136492898</v>
+        <v>0.05597360712246754</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>572225416.8239986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2162030158.597776</v>
+        <v>2364238368.878497</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1429202731962592</v>
+        <v>0.1163013832600087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04480697341622879</v>
+        <v>0.04333240469825636</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1081015137.633928</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3802144040.998937</v>
+        <v>3217331792.715663</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08281287637911697</v>
+        <v>0.09830539762485045</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0311884319846198</v>
+        <v>0.02968137159119356</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>107</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1901072036.15288</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2165209308.61383</v>
+        <v>2358347724.793498</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1617367146042001</v>
+        <v>0.202965597813285</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02223903871638023</v>
+        <v>0.01592857906345423</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>119</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1082604736.648693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1946135262.892316</v>
+        <v>2268421146.388285</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08869481393894425</v>
+        <v>0.08629213632609824</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03273692597044415</v>
+        <v>0.02995060514083012</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>973067727.0327079</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1911975356.640236</v>
+        <v>2418360293.163965</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1891819614252904</v>
+        <v>0.1313166518625862</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04273831728097329</v>
+        <v>0.05033637734832266</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>955987660.322343</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5690267145.292226</v>
+        <v>3593356972.434022</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1262463435612763</v>
+        <v>0.1678675404221226</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04836280964274799</v>
+        <v>0.05855726950448667</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>117</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2845133638.956978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3637929055.770407</v>
+        <v>4586583818.450374</v>
       </c>
       <c r="F47" t="n">
-        <v>0.136043519849184</v>
+        <v>0.1338660433997216</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04454088745999936</v>
+        <v>0.0559542670761163</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>88</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1818964506.547719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4591017473.064632</v>
+        <v>3559924555.389483</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06855379757395881</v>
+        <v>0.08384942399583327</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02742188325520619</v>
+        <v>0.02672964545680234</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>108</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2295508736.584857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1829884413.382688</v>
+        <v>1537938453.902403</v>
       </c>
       <c r="F49" t="n">
-        <v>0.127389333408013</v>
+        <v>0.1268333400065292</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04472304029101649</v>
+        <v>0.03711894210164682</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>914942187.441769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3054772131.5002</v>
+        <v>4079586914.27532</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1200640273072058</v>
+        <v>0.1494792380067184</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03672766767734387</v>
+        <v>0.03322241724378477</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>113</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1527386121.678632</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1123726367.099698</v>
+        <v>1391419461.706568</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1757759643308209</v>
+        <v>0.1273792840380188</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04686863870088032</v>
+        <v>0.04323185970985247</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>561863247.468124</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3984176468.313887</v>
+        <v>4984499168.423138</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09331825503674593</v>
+        <v>0.1051590986616091</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04735879523235499</v>
+        <v>0.04659737105710854</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>136</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1992088291.576702</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2710123034.170979</v>
+        <v>3701725226.194376</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1446934404966372</v>
+        <v>0.1485114404139907</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03454882783983875</v>
+        <v>0.03442875919264625</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1355061569.569835</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3994051423.77258</v>
+        <v>3799690267.474374</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1136552297416141</v>
+        <v>0.1223235527213372</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03228155366872585</v>
+        <v>0.04669251461120828</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>108</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1997025775.507019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3490770118.09872</v>
+        <v>3947221076.261736</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1389269368074645</v>
+        <v>0.200142173554192</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01961670783296107</v>
+        <v>0.03059235984601788</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1745385011.519092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1875551962.473757</v>
+        <v>1531407952.972757</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1543508079437962</v>
+        <v>0.1306254124134966</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03913584179169491</v>
+        <v>0.04342662112965768</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>937775967.8634013</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3926933469.91686</v>
+        <v>4584525678.358908</v>
       </c>
       <c r="F57" t="n">
-        <v>0.168174207442878</v>
+        <v>0.1295734244665868</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01971063119981598</v>
+        <v>0.02474258127955918</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>106</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1963466817.19846</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1195875259.711252</v>
+        <v>1159356786.848781</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1810046528931184</v>
+        <v>0.1491277981968705</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02449258413605421</v>
+        <v>0.0261455627121238</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>597937688.7622454</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4190430930.844394</v>
+        <v>3563009934.924059</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09423519436197021</v>
+        <v>0.1288822100862415</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03243444321445135</v>
+        <v>0.04700810810455997</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2095215432.19625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2751470174.827116</v>
+        <v>2451808858.642865</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1875585259677929</v>
+        <v>0.181204857066993</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02493605954296431</v>
+        <v>0.02407225193708159</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1375735131.701685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2977945598.572969</v>
+        <v>3213019702.541836</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1518976658877794</v>
+        <v>0.1753795543135651</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02422799811444781</v>
+        <v>0.02061012210291897</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>113</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1488972781.84154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1832572991.90748</v>
+        <v>1675865629.880394</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1589042153894777</v>
+        <v>0.1782720140747157</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0423318565153721</v>
+        <v>0.03683460630801874</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>916286528.9232728</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4193212679.40797</v>
+        <v>3524778447.313651</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07601132951125164</v>
+        <v>0.09397885396168737</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0376007543241676</v>
+        <v>0.04461374457102262</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2096606393.494727</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4631203606.323642</v>
+        <v>3411483812.132002</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1384432451383469</v>
+        <v>0.1574227287433325</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03224688060222303</v>
+        <v>0.02265030335640261</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>103</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2315601883.416965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3722646490.42048</v>
+        <v>4865219274.954785</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1558280946750726</v>
+        <v>0.1268471555043061</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02643104818725123</v>
+        <v>0.02424949295105277</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1861323280.347565</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5133792529.29052</v>
+        <v>3765060100.502676</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1368551341727551</v>
+        <v>0.1073436672796855</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03893656703069386</v>
+        <v>0.04081156982573091</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>96</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2566896298.952007</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2460179689.851276</v>
+        <v>2283973017.668047</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1010365880068645</v>
+        <v>0.08158581250458637</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03220283503252485</v>
+        <v>0.03551032022492427</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>106</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1230089908.933041</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5806138125.20505</v>
+        <v>5458569456.330083</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1473679261704194</v>
+        <v>0.1381156384250665</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03852374509647653</v>
+        <v>0.03925136401712633</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2903069167.841949</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1683226138.659251</v>
+        <v>2161836423.752366</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1355241536249867</v>
+        <v>0.1626491078670719</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04635243308747677</v>
+        <v>0.04976042000256137</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>841613033.3197781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3488268719.101104</v>
+        <v>3413080243.655602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1001766360280994</v>
+        <v>0.09705230897890366</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02993657598431504</v>
+        <v>0.04662736662989905</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>94</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1744134368.333303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4381712204.017227</v>
+        <v>4553407143.918404</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1137417507683859</v>
+        <v>0.1806003685312728</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03062414624470259</v>
+        <v>0.03137123086260542</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>120</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2190856161.54705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2186201325.138079</v>
+        <v>1644115048.273319</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07661714992160264</v>
+        <v>0.1083498882697978</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04790430048743455</v>
+        <v>0.04747685070804029</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1093100578.862432</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3202910335.220074</v>
+        <v>2486915373.677798</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07863570176496676</v>
+        <v>0.08388741931549686</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03236563998080169</v>
+        <v>0.03834007387854536</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1601455145.025261</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3980394345.727968</v>
+        <v>2810041893.372881</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1639225504274399</v>
+        <v>0.1729215102997212</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03303871427918414</v>
+        <v>0.0272678833978176</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>113</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1990197153.533405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2018157071.499964</v>
+        <v>2296228598.105102</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1212785607888506</v>
+        <v>0.1239941205453219</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02437524308379666</v>
+        <v>0.02789968546818173</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1009078498.186893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3599714562.728016</v>
+        <v>3918741880.239817</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09560853015282109</v>
+        <v>0.08736204488633771</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02469477332503743</v>
+        <v>0.03335609099966133</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1799857249.318802</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1788857920.948057</v>
+        <v>1528793591.664188</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1347287028461604</v>
+        <v>0.1805090124284859</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02507998981639009</v>
+        <v>0.02868353104578006</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>894428990.7995307</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4655324416.859222</v>
+        <v>3894637728.776573</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1217409763163775</v>
+        <v>0.1038045891299118</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04274233564626528</v>
+        <v>0.0564914090249809</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>115</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2327662127.247198</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1653003462.50248</v>
+        <v>1587153511.796035</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1248884482357564</v>
+        <v>0.1246135258409303</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03775552185151412</v>
+        <v>0.03053654937150832</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>826501792.2463734</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4099957571.783238</v>
+        <v>5552964915.066369</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08081011608470157</v>
+        <v>0.07029950786482421</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02641720505145795</v>
+        <v>0.03781922369025512</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2049978790.327333</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4432189781.546185</v>
+        <v>3989653875.151517</v>
       </c>
       <c r="F81" t="n">
-        <v>0.115975833676904</v>
+        <v>0.1269543600959959</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02429712087213302</v>
+        <v>0.02974281523056309</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>76</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2216094870.034199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4569559048.178292</v>
+        <v>4354253496.919438</v>
       </c>
       <c r="F82" t="n">
-        <v>0.143431145892604</v>
+        <v>0.1479133519657006</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01991214075112675</v>
+        <v>0.02437174618613721</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2284779532.063677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1672391173.781313</v>
+        <v>1796512281.919331</v>
       </c>
       <c r="F83" t="n">
-        <v>0.129426806510642</v>
+        <v>0.1040286577549019</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0388343077573918</v>
+        <v>0.04484598206724937</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>836195531.4345008</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1640861668.971696</v>
+        <v>2078582686.430572</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09962810538535363</v>
+        <v>0.1058848168987239</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04582594525630931</v>
+        <v>0.04885388672401367</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>820430892.0802375</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2298490546.703745</v>
+        <v>3637583382.015244</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1316052245287196</v>
+        <v>0.1632783810615936</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04363623031509697</v>
+        <v>0.03736493091398445</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>125</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1149245256.082016</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2115683000.231393</v>
+        <v>1760142423.77108</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1177993114752331</v>
+        <v>0.1542794389188396</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02494673222676576</v>
+        <v>0.02418345364494469</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1057841543.833463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1089826010.013434</v>
+        <v>1336859741.597948</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1838798032986419</v>
+        <v>0.1294957106563232</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03906814746065013</v>
+        <v>0.02902754470517207</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>544913032.3573222</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3548500579.119326</v>
+        <v>3531548832.351017</v>
       </c>
       <c r="F88" t="n">
-        <v>0.141220448167985</v>
+        <v>0.1692534447396179</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02516598365938562</v>
+        <v>0.03091402187443755</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>131</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1774250374.228922</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2401059288.577094</v>
+        <v>2949345687.986626</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1435484842490669</v>
+        <v>0.1449869808715897</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04131066816891171</v>
+        <v>0.02964522082109153</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>111</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1200529726.321793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1790892275.785396</v>
+        <v>2019021438.053154</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1353648847194538</v>
+        <v>0.1144395193934742</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03974793135186939</v>
+        <v>0.03395455403535409</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>895446169.8444794</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1759245524.67234</v>
+        <v>1576143073.289108</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1525534859145056</v>
+        <v>0.1340072000854923</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05190892322413202</v>
+        <v>0.03898242507006955</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>879622766.7233398</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2099735145.21164</v>
+        <v>2854004480.219964</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1088615624622505</v>
+        <v>0.06869428716769423</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03833500353254748</v>
+        <v>0.03006096053317889</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>89</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1049867526.315288</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4935070629.193596</v>
+        <v>3150281169.619162</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1203984154470359</v>
+        <v>0.09789669766783485</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04816541311844408</v>
+        <v>0.0401490509754009</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2467535254.756063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2255469326.197493</v>
+        <v>1522738304.662358</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1237131768417123</v>
+        <v>0.1454633965331862</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03221664806411829</v>
+        <v>0.02988450013696824</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1127734694.681732</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3195298086.645178</v>
+        <v>3284393562.606214</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1067816187134299</v>
+        <v>0.08402554630967353</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03490188756871128</v>
+        <v>0.04187958583835391</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>79</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1597649028.887635</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1502082194.839431</v>
+        <v>1685966261.535714</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09544893413929816</v>
+        <v>0.1150100956358083</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03232404364271125</v>
+        <v>0.03084970620059974</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>751041137.5651855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4331782046.270846</v>
+        <v>4715280219.100245</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1387583687591845</v>
+        <v>0.1203854181957585</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0209276657266098</v>
+        <v>0.02129415439593128</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>106</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2165891106.198152</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3685131393.123894</v>
+        <v>2623097264.497058</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08782126517922685</v>
+        <v>0.08127871693296568</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03138676808410188</v>
+        <v>0.02891539607010746</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1842565727.717315</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2673400952.237685</v>
+        <v>3008891792.270448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1210797598341315</v>
+        <v>0.1386436581142889</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0262722220145904</v>
+        <v>0.02577724383716767</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>104</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1336700438.459474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3953640867.043797</v>
+        <v>4382921679.747484</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1646333703115936</v>
+        <v>0.1468048298329156</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0237316483658468</v>
+        <v>0.02573808879608627</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>103</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1976820500.507858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2805960728.999803</v>
+        <v>2535952136.748204</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1386859772551479</v>
+        <v>0.2092345710911676</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04562718206636068</v>
+        <v>0.05498507780775393</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>133</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1402980427.924959</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_331.xlsx
+++ b/output/fit_clients/fit_round_331.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1923337280.47321</v>
+        <v>1520064760.428208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1147964101557578</v>
+        <v>0.09385220887037894</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02809369283138855</v>
+        <v>0.027979216714615</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1827801414.542669</v>
+        <v>1681109544.393855</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1481690513038215</v>
+        <v>0.1660103046884379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0443273821539002</v>
+        <v>0.03456674893808717</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3239540731.755889</v>
+        <v>4577261839.538916</v>
       </c>
       <c r="F4" t="n">
-        <v>0.157454521163955</v>
+        <v>0.1049073317387556</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03481658039852386</v>
+        <v>0.03685816900424931</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2723682579.016984</v>
+        <v>3139050811.409001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08655455494405911</v>
+        <v>0.09209241858357085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04405082003931515</v>
+        <v>0.04420060122589285</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1837448803.589768</v>
+        <v>2347106997.793468</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1264300683405255</v>
+        <v>0.09963730570064233</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04541073327066256</v>
+        <v>0.04687891827414216</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2400036543.043691</v>
+        <v>2859361515.21225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07956266104207575</v>
+        <v>0.07210139617832866</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03512026214004803</v>
+        <v>0.04758015084807876</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3345518702.355054</v>
+        <v>3871708584.765169</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2103731441061709</v>
+        <v>0.1779114439711491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02213263801773406</v>
+        <v>0.02155317061622209</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1483640865.328178</v>
+        <v>2193262348.263492</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1571803751787063</v>
+        <v>0.1422736390291061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03707566503544917</v>
+        <v>0.02711995850086672</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4538955100.952942</v>
+        <v>3954028807.949861</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1477538448568453</v>
+        <v>0.1328957869715431</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04575832812435875</v>
+        <v>0.04273154150824272</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3083629133.718931</v>
+        <v>2637663384.929502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1441564263470817</v>
+        <v>0.1266367352693016</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03432913543016584</v>
+        <v>0.03580868379062976</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2723095311.096714</v>
+        <v>3123325029.588628</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1487350617627796</v>
+        <v>0.1912955201218929</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0448972710837836</v>
+        <v>0.04211696639786304</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3383023246.664382</v>
+        <v>4042913308.111762</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08287565094127601</v>
+        <v>0.08909526899283446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02199243392140898</v>
+        <v>0.02530699973418224</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2833537787.921863</v>
+        <v>2882028909.780251</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1591641822058696</v>
+        <v>0.1691997006837337</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03802695157055218</v>
+        <v>0.03796757602007142</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1464129390.412065</v>
+        <v>1180480642.624493</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1017708662374998</v>
+        <v>0.06689510867055162</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04575032168572082</v>
+        <v>0.03346065741412669</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1862718451.534081</v>
+        <v>2217615751.806345</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1045824471184493</v>
+        <v>0.07529767703033538</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05072878695838488</v>
+        <v>0.04752991196833371</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4331478457.905871</v>
+        <v>4891729636.325423</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1383717672839913</v>
+        <v>0.1734348355225923</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05136116201928412</v>
+        <v>0.03980826333597727</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3898675180.806593</v>
+        <v>2535482141.438337</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1514129868493416</v>
+        <v>0.1675929613351883</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02423639054011496</v>
+        <v>0.0300690357542212</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1209417053.497109</v>
+        <v>885428262.6982803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1836696872672006</v>
+        <v>0.1354741574176056</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01831469290614392</v>
+        <v>0.02292675722031159</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2187573150.366352</v>
+        <v>2406758351.880117</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1396731906427298</v>
+        <v>0.1203366049580918</v>
       </c>
       <c r="G20" t="n">
-        <v>0.030359695479321</v>
+        <v>0.02049915975546594</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2058899100.065075</v>
+        <v>2626912380.314039</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07746411357475712</v>
+        <v>0.09867852787176111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03029481901130942</v>
+        <v>0.03015055149955163</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2526939879.457424</v>
+        <v>2592254142.455095</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09496637723602773</v>
+        <v>0.1247617617692686</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04256967458867078</v>
+        <v>0.04291571709793561</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1433367389.471282</v>
+        <v>1287810291.137113</v>
       </c>
       <c r="F23" t="n">
-        <v>0.173336519634488</v>
+        <v>0.1377891986485935</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04862725859874895</v>
+        <v>0.03783846071071587</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3109881196.926137</v>
+        <v>3661901821.285011</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1451058960076776</v>
+        <v>0.1295439434025677</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02998536565464766</v>
+        <v>0.02457108931850065</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1311044083.902611</v>
+        <v>1353363481.417321</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07659524196608454</v>
+        <v>0.07572440200252883</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02487853729106513</v>
+        <v>0.02176433642047612</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>976505770.6077919</v>
+        <v>1197213980.257932</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1227560009232317</v>
+        <v>0.1100463381457644</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03574307512325472</v>
+        <v>0.03727793531161896</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4467708836.212696</v>
+        <v>4624958915.428725</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09989107628809585</v>
+        <v>0.1133403907104799</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02046248987775609</v>
+        <v>0.0235234043451448</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3300950729.79682</v>
+        <v>3148137777.434738</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1228692559754752</v>
+        <v>0.1295334450714236</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04108556119053286</v>
+        <v>0.04877880051074721</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5391176551.53751</v>
+        <v>4547592682.212023</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1399720255224127</v>
+        <v>0.134643897693265</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03184812979779449</v>
+        <v>0.03774176207543157</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2181459298.688857</v>
+        <v>2244522659.808448</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08864399726794664</v>
+        <v>0.1235906131402977</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02806999857930546</v>
+        <v>0.03239138956941805</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1460718124.876046</v>
+        <v>1366079417.393951</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07286077011267113</v>
+        <v>0.09242090660359743</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05209150221551223</v>
+        <v>0.04700818393828959</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1688329644.462466</v>
+        <v>1901829331.655211</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08469125848403049</v>
+        <v>0.09377259197216868</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03086254104706311</v>
+        <v>0.03561894084056658</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2793837603.399297</v>
+        <v>3049282641.50857</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1917467625305742</v>
+        <v>0.1878586126331725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04462700884234033</v>
+        <v>0.06035452284802436</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1091003433.989243</v>
+        <v>1267898609.514343</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07979518384047708</v>
+        <v>0.1109099094832433</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01905934077855912</v>
+        <v>0.02477274910223259</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1184045187.496491</v>
+        <v>1273331646.721523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1029696502069814</v>
+        <v>0.07259262651051358</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03185263623858828</v>
+        <v>0.03483357592858723</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2691975311.441373</v>
+        <v>2572065191.227514</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1619484828235905</v>
+        <v>0.1742565587670837</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01802596704834289</v>
+        <v>0.02256477613273252</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2104197397.506914</v>
+        <v>2458168725.657293</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07196047236892164</v>
+        <v>0.07592113584181505</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03408632560710061</v>
+        <v>0.03719129058300104</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2133250889.509833</v>
+        <v>1609842984.901108</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1138982137584783</v>
+        <v>0.09339877477374928</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02830037418267223</v>
+        <v>0.03602548731152483</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1601072464.173472</v>
+        <v>2045675257.35906</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1496466733340008</v>
+        <v>0.143203385619262</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02081607401792007</v>
+        <v>0.02053946943109048</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1513014462.404082</v>
+        <v>1272267058.823505</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1357925438451014</v>
+        <v>0.1364317712435726</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05597360712246754</v>
+        <v>0.0517257776407764</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2364238368.878497</v>
+        <v>1931107654.443662</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1163013832600087</v>
+        <v>0.1404629557119281</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04333240469825636</v>
+        <v>0.03293040255849399</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3217331792.715663</v>
+        <v>3476923725.001776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09830539762485045</v>
+        <v>0.08259808365437458</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02968137159119356</v>
+        <v>0.04018470366460334</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2358347724.793498</v>
+        <v>2945196775.947743</v>
       </c>
       <c r="F43" t="n">
-        <v>0.202965597813285</v>
+        <v>0.1653800513771648</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01592857906345423</v>
+        <v>0.01996316531507488</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2268421146.388285</v>
+        <v>2085985596.445431</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08629213632609824</v>
+        <v>0.1023198114826277</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02995060514083012</v>
+        <v>0.02783521300471875</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2418360293.163965</v>
+        <v>1560267724.004127</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1313166518625862</v>
+        <v>0.1354983791688672</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05033637734832266</v>
+        <v>0.05015399085651694</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3593356972.434022</v>
+        <v>5236786340.22289</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1678675404221226</v>
+        <v>0.1301056341745141</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05855726950448667</v>
+        <v>0.05171683053790364</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4586583818.450374</v>
+        <v>4393760576.489978</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1338660433997216</v>
+        <v>0.1703004782159746</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0559542670761163</v>
+        <v>0.05757637436886176</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3559924555.389483</v>
+        <v>3085926107.712015</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08384942399583327</v>
+        <v>0.07958726358445986</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02672964545680234</v>
+        <v>0.02814860523181177</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1537938453.902403</v>
+        <v>1987940320.079452</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1268333400065292</v>
+        <v>0.1654068677015927</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03711894210164682</v>
+        <v>0.03946816672286014</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4079586914.27532</v>
+        <v>3363885547.21151</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1494792380067184</v>
+        <v>0.1117002183588122</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03322241724378477</v>
+        <v>0.03984689551197638</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1391419461.706568</v>
+        <v>1426140960.143767</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1273792840380188</v>
+        <v>0.181390858929917</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04323185970985247</v>
+        <v>0.05277208206418613</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4984499168.423138</v>
+        <v>4270922193.703834</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1051590986616091</v>
+        <v>0.1166738355259851</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04659737105710854</v>
+        <v>0.04324409037651132</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3701725226.194376</v>
+        <v>2991791878.992458</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1485114404139907</v>
+        <v>0.1400340702600716</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03442875919264625</v>
+        <v>0.02975538368312512</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3799690267.474374</v>
+        <v>4031467414.115717</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1223235527213372</v>
+        <v>0.142399426217326</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04669251461120828</v>
+        <v>0.03807812506920016</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3947221076.261736</v>
+        <v>4225210688.729181</v>
       </c>
       <c r="F55" t="n">
-        <v>0.200142173554192</v>
+        <v>0.2196082634873016</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03059235984601788</v>
+        <v>0.02312584238648898</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1531407952.972757</v>
+        <v>1236513502.25886</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1306254124134966</v>
+        <v>0.1249859501056833</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04342662112965768</v>
+        <v>0.04728308863459428</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4584525678.358908</v>
+        <v>3100273342.199634</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1295734244665868</v>
+        <v>0.1561337472291828</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02474258127955918</v>
+        <v>0.02616587931186597</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1159356786.848781</v>
+        <v>1149277014.404822</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1491277981968705</v>
+        <v>0.1683592592960729</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0261455627121238</v>
+        <v>0.03903838761395428</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3563009934.924059</v>
+        <v>4760274203.936749</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1288822100862415</v>
+        <v>0.09487075359649903</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04700810810455997</v>
+        <v>0.03930499423428541</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2451808858.642865</v>
+        <v>3512924265.126863</v>
       </c>
       <c r="F60" t="n">
-        <v>0.181204857066993</v>
+        <v>0.1398398644276104</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02407225193708159</v>
+        <v>0.03254587933596726</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3213019702.541836</v>
+        <v>2808044811.391407</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1753795543135651</v>
+        <v>0.1219981871201846</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02061012210291897</v>
+        <v>0.03110803177323556</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1675865629.880394</v>
+        <v>1454025094.640231</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1782720140747157</v>
+        <v>0.1400239060078645</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03683460630801874</v>
+        <v>0.03590407736212325</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3524778447.313651</v>
+        <v>4666205820.801324</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09397885396168737</v>
+        <v>0.06654863895737781</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04461374457102262</v>
+        <v>0.03700624588910401</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3411483812.132002</v>
+        <v>5406469158.850432</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1574227287433325</v>
+        <v>0.154163823652623</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02265030335640261</v>
+        <v>0.02236072600198603</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4865219274.954785</v>
+        <v>4685974255.339422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1268471555043061</v>
+        <v>0.1349344640625336</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02424949295105277</v>
+        <v>0.02207051241416591</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3765060100.502676</v>
+        <v>4988235850.254226</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1073436672796855</v>
+        <v>0.1105117257702293</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04081156982573091</v>
+        <v>0.03117160689278407</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2283973017.668047</v>
+        <v>2326261761.036334</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08158581250458637</v>
+        <v>0.07427089733783149</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03551032022492427</v>
+        <v>0.0407673793451833</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5458569456.330083</v>
+        <v>4443836218.270576</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1381156384250665</v>
+        <v>0.09690720714529065</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03925136401712633</v>
+        <v>0.03633058302298691</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2161836423.752366</v>
+        <v>2158527927.940832</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1626491078670719</v>
+        <v>0.1623881764140262</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04976042000256137</v>
+        <v>0.03790423947372684</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3413080243.655602</v>
+        <v>3724807326.840876</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09705230897890366</v>
+        <v>0.09011153296726707</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04662736662989905</v>
+        <v>0.03844220214467009</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4553407143.918404</v>
+        <v>3640491028.415551</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1806003685312728</v>
+        <v>0.1497296053503386</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03137123086260542</v>
+        <v>0.03293871330773855</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1644115048.273319</v>
+        <v>1951755265.527905</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1083498882697978</v>
+        <v>0.08654626603774458</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04747685070804029</v>
+        <v>0.0503168944896976</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2486915373.677798</v>
+        <v>2878940791.463555</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08388741931549686</v>
+        <v>0.07165574686014381</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03834007387854536</v>
+        <v>0.03206549401603992</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2810041893.372881</v>
+        <v>2658996893.650587</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1729215102997212</v>
+        <v>0.1258754056513581</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0272678833978176</v>
+        <v>0.03390489821004531</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2296228598.105102</v>
+        <v>1882290258.722896</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1239941205453219</v>
+        <v>0.1213599540289173</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02789968546818173</v>
+        <v>0.02739913675255583</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3918741880.239817</v>
+        <v>3499953627.435963</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08736204488633771</v>
+        <v>0.1198993007216434</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03335609099966133</v>
+        <v>0.02142674758883201</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1528793591.664188</v>
+        <v>2124595360.956717</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1805090124284859</v>
+        <v>0.1297610302312266</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02868353104578006</v>
+        <v>0.02564549130963406</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3894637728.776573</v>
+        <v>4016699219.098974</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1038045891299118</v>
+        <v>0.1196771239473423</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0564914090249809</v>
+        <v>0.04982021611704356</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1587153511.796035</v>
+        <v>1866530349.215284</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1246135258409303</v>
+        <v>0.1528517563260529</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03053654937150832</v>
+        <v>0.03857007236910867</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5552964915.066369</v>
+        <v>4284837190.549626</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07029950786482421</v>
+        <v>0.1065835569147653</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03781922369025512</v>
+        <v>0.02723844081633838</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3989653875.151517</v>
+        <v>3620479328.781179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1269543600959959</v>
+        <v>0.1120851118736744</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02974281523056309</v>
+        <v>0.02342939574288898</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4354253496.919438</v>
+        <v>5285115023.281098</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1479133519657006</v>
+        <v>0.2066195255327131</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02437174618613721</v>
+        <v>0.02191487179664418</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1796512281.919331</v>
+        <v>1916987696.891632</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1040286577549019</v>
+        <v>0.1529772472155861</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04484598206724937</v>
+        <v>0.03772107768653764</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2078582686.430572</v>
+        <v>1647904909.45336</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1058848168987239</v>
+        <v>0.1121995795831953</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04885388672401367</v>
+        <v>0.04490941135777556</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3637583382.015244</v>
+        <v>3252753305.433051</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1632783810615936</v>
+        <v>0.1240698083973133</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03736493091398445</v>
+        <v>0.04432622088382542</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1760142423.77108</v>
+        <v>2305533781.671119</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1542794389188396</v>
+        <v>0.1554032390913417</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02418345364494469</v>
+        <v>0.01739590676386707</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1336859741.597948</v>
+        <v>1370380344.839362</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1294957106563232</v>
+        <v>0.1835429493327089</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02902754470517207</v>
+        <v>0.04216450530997107</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3531548832.351017</v>
+        <v>3704104411.279898</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1692534447396179</v>
+        <v>0.1400284562906746</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03091402187443755</v>
+        <v>0.03904728904542819</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2949345687.986626</v>
+        <v>2288712154.840245</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1449869808715897</v>
+        <v>0.1110470614621904</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02964522082109153</v>
+        <v>0.03181390506204634</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2019021438.053154</v>
+        <v>2068143894.095221</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1144395193934742</v>
+        <v>0.09364241449177327</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03395455403535409</v>
+        <v>0.05307749374263118</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1576143073.289108</v>
+        <v>1664046011.748128</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1340072000854923</v>
+        <v>0.1407903605807381</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03898242507006955</v>
+        <v>0.05706345190183865</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2854004480.219964</v>
+        <v>2139273535.024979</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06869428716769423</v>
+        <v>0.09382978219633539</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03006096053317889</v>
+        <v>0.03390875775984507</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3150281169.619162</v>
+        <v>3344804100.074792</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09789669766783485</v>
+        <v>0.1249646747417067</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0401490509754009</v>
+        <v>0.03497662713018614</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1522738304.662358</v>
+        <v>1551754875.650362</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1454633965331862</v>
+        <v>0.1431071712734742</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02988450013696824</v>
+        <v>0.04329902970498255</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3284393562.606214</v>
+        <v>3207612214.009244</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08402554630967353</v>
+        <v>0.1260741430430623</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04187958583835391</v>
+        <v>0.04916948069989169</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1685966261.535714</v>
+        <v>1464199792.910187</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1150100956358083</v>
+        <v>0.08889215444263496</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03084970620059974</v>
+        <v>0.03518590979859102</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4715280219.100245</v>
+        <v>5022745575.388292</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1203854181957585</v>
+        <v>0.138688741709997</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02129415439593128</v>
+        <v>0.02859030333666296</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2623097264.497058</v>
+        <v>3061520795.044971</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08127871693296568</v>
+        <v>0.0801902418989227</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02891539607010746</v>
+        <v>0.03194745339584384</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3008891792.270448</v>
+        <v>2572000292.002961</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1386436581142889</v>
+        <v>0.1437975979175125</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02577724383716767</v>
+        <v>0.03217179838776523</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4382921679.747484</v>
+        <v>3137007614.668449</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1468048298329156</v>
+        <v>0.1589511292461309</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02573808879608627</v>
+        <v>0.02770058499454263</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2535952136.748204</v>
+        <v>2893153288.94141</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2092345710911676</v>
+        <v>0.183494674547406</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05498507780775393</v>
+        <v>0.05069503551365202</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_331.xlsx
+++ b/output/fit_clients/fit_round_331.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1520064760.428208</v>
+        <v>1531266250.118426</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09385220887037894</v>
+        <v>0.09338841886346146</v>
       </c>
       <c r="G2" t="n">
-        <v>0.027979216714615</v>
+        <v>0.03744065701210305</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1681109544.393855</v>
+        <v>1665240983.908639</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1660103046884379</v>
+        <v>0.1224453269973648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03456674893808717</v>
+        <v>0.04175130105276995</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4577261839.538916</v>
+        <v>4490851201.971828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1049073317387556</v>
+        <v>0.147541248472806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03685816900424931</v>
+        <v>0.02948552603816737</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>172</v>
+      </c>
+      <c r="J4" t="n">
+        <v>330</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69.58562692552255</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3139050811.409001</v>
+        <v>2771689192.114303</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09209241858357085</v>
+        <v>0.1094938594769892</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04420060122589285</v>
+        <v>0.03200100404326778</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>329</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2347106997.793468</v>
+        <v>2237110188.596896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09963730570064233</v>
+        <v>0.1125163902712201</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04687891827414216</v>
+        <v>0.04453828192927421</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2859361515.21225</v>
+        <v>2434333580.360393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07210139617832866</v>
+        <v>0.0738956847740242</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04758015084807876</v>
+        <v>0.03368358544854819</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3871708584.765169</v>
+        <v>2939037457.222212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1779114439711491</v>
+        <v>0.1744901702296763</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02155317061622209</v>
+        <v>0.03210574532688261</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2193262348.263492</v>
+        <v>1882987753.781699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1422736390291061</v>
+        <v>0.139536855962175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02711995850086672</v>
+        <v>0.0344322946272118</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3954028807.949861</v>
+        <v>5511308571.811759</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1328957869715431</v>
+        <v>0.1640330963516814</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04273154150824272</v>
+        <v>0.04308686414399641</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>285</v>
+      </c>
+      <c r="J10" t="n">
+        <v>331</v>
+      </c>
+      <c r="K10" t="n">
+        <v>71.83461824753815</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2637663384.929502</v>
+        <v>2659478347.773102</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1266367352693016</v>
+        <v>0.1764495701115018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03580868379062976</v>
+        <v>0.03801022629442378</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>134</v>
+      </c>
+      <c r="J11" t="n">
+        <v>329</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3123325029.588628</v>
+        <v>2629110650.883175</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1912955201218929</v>
+        <v>0.1330546636253448</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04211696639786304</v>
+        <v>0.05160772268654128</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4042913308.111762</v>
+        <v>3721224934.313535</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08909526899283446</v>
+        <v>0.07715753203071948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02530699973418224</v>
+        <v>0.02966170329682411</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>172</v>
+      </c>
+      <c r="J13" t="n">
+        <v>331</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2882028909.780251</v>
+        <v>3579919972.233898</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1691997006837337</v>
+        <v>0.1807092187508751</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03796757602007142</v>
+        <v>0.02979393233943986</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>331</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1180480642.624493</v>
+        <v>1158639897.111894</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06689510867055162</v>
+        <v>0.08431422004906697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03346065741412669</v>
+        <v>0.03370428688143339</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2217615751.806345</v>
+        <v>1746333187.4286</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07529767703033538</v>
+        <v>0.09592564539123123</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04752991196833371</v>
+        <v>0.04717004483038011</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4891729636.325423</v>
+        <v>4762091396.373037</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1734348355225923</v>
+        <v>0.1282709461219429</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03980826333597727</v>
+        <v>0.03589100689003564</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>155</v>
+      </c>
+      <c r="J17" t="n">
+        <v>331</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2535482141.438337</v>
+        <v>2688195682.683082</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1675929613351883</v>
+        <v>0.1641717166834604</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0300690357542212</v>
+        <v>0.02978650756223201</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>329</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>885428262.6982803</v>
+        <v>1076110007.309199</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1354741574176056</v>
+        <v>0.1669946513204706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02292675722031159</v>
+        <v>0.02044944391869256</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2406758351.880117</v>
+        <v>1979723305.502184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1203366049580918</v>
+        <v>0.1063009711567442</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02049915975546594</v>
+        <v>0.02824745315150846</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2626912380.314039</v>
+        <v>1758148537.725293</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09867852787176111</v>
+        <v>0.09533586249322375</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03015055149955163</v>
+        <v>0.04180419657594436</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1199,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2592254142.455095</v>
+        <v>3652613205.052503</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1247617617692686</v>
+        <v>0.1314874988348372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04291571709793561</v>
+        <v>0.05015841466480867</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>91</v>
+      </c>
+      <c r="J22" t="n">
+        <v>331</v>
+      </c>
+      <c r="K22" t="n">
+        <v>73.36852322614951</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1287810291.137113</v>
+        <v>1176529607.392624</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1377891986485935</v>
+        <v>0.1232400144404188</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03783846071071587</v>
+        <v>0.04113183199476283</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3661901821.285011</v>
+        <v>3436669574.530077</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1295439434025677</v>
+        <v>0.09717606358352461</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02457108931850065</v>
+        <v>0.03755692440161092</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>98</v>
+      </c>
+      <c r="J24" t="n">
+        <v>330</v>
+      </c>
+      <c r="K24" t="n">
+        <v>63.61204420129226</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1353363481.417321</v>
+        <v>1158350274.59102</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07572440200252883</v>
+        <v>0.09171719931207574</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02176433642047612</v>
+        <v>0.02451407918200842</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1197213980.257932</v>
+        <v>1195540111.142406</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1100463381457644</v>
+        <v>0.1133375923853004</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03727793531161896</v>
+        <v>0.02489401604609669</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4624958915.428725</v>
+        <v>3861542012.855417</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1133403907104799</v>
+        <v>0.1017946260809581</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235234043451448</v>
+        <v>0.02005281275085517</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>137</v>
+      </c>
+      <c r="J27" t="n">
+        <v>331</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3148137777.434738</v>
+        <v>2525435025.643073</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1295334450714236</v>
+        <v>0.1439195972356089</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04877880051074721</v>
+        <v>0.04894839595348037</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>327</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4547592682.212023</v>
+        <v>4309651344.415157</v>
       </c>
       <c r="F29" t="n">
-        <v>0.134643897693265</v>
+        <v>0.1309377882104944</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03774176207543157</v>
+        <v>0.03183945602997486</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>302</v>
+      </c>
+      <c r="J29" t="n">
+        <v>330</v>
+      </c>
+      <c r="K29" t="n">
+        <v>69.96854527182261</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2244522659.808448</v>
+        <v>1572788303.613734</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1235906131402977</v>
+        <v>0.1321592987075708</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03239138956941805</v>
+        <v>0.02671263368660494</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1366079417.393951</v>
+        <v>1394816941.07549</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09242090660359743</v>
+        <v>0.08523019083062924</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04700818393828959</v>
+        <v>0.0464465097257436</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1901829331.655211</v>
+        <v>1141886921.654588</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09377259197216868</v>
+        <v>0.08362857360186333</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03561894084056658</v>
+        <v>0.03220246015158505</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3049282641.50857</v>
+        <v>2174689309.18826</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1878586126331725</v>
+        <v>0.1971793138968013</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06035452284802436</v>
+        <v>0.0391614973461165</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1267898609.514343</v>
+        <v>965679772.0264717</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1109099094832433</v>
+        <v>0.1072810088557451</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02477274910223259</v>
+        <v>0.02003533453381391</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1273331646.721523</v>
+        <v>982537189.6286529</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07259262651051358</v>
+        <v>0.1082858832794039</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03483357592858723</v>
+        <v>0.03617176870031458</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2572065191.227514</v>
+        <v>3244488776.616051</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1742565587670837</v>
+        <v>0.1703870490512579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02256477613273252</v>
+        <v>0.02218040081277084</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2458168725.657293</v>
+        <v>1963498326.658869</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07592113584181505</v>
+        <v>0.08220176287525871</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03719129058300104</v>
+        <v>0.03862581694449197</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1609842984.901108</v>
+        <v>2087781519.912735</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09339877477374928</v>
+        <v>0.1203803412262186</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03602548731152483</v>
+        <v>0.0305743723030928</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2045675257.35906</v>
+        <v>1681088306.393021</v>
       </c>
       <c r="F39" t="n">
-        <v>0.143203385619262</v>
+        <v>0.1324932297940333</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02053946943109048</v>
+        <v>0.02790950162003958</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1272267058.823505</v>
+        <v>1234776850.554835</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1364317712435726</v>
+        <v>0.1227549121968689</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0517257776407764</v>
+        <v>0.04616557223976861</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1931107654.443662</v>
+        <v>2002061601.120065</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1404629557119281</v>
+        <v>0.1422233275865956</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03293040255849399</v>
+        <v>0.0348271512891124</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3476923725.001776</v>
+        <v>4205948074.042576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08259808365437458</v>
+        <v>0.09637642724213966</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04018470366460334</v>
+        <v>0.02910819865240094</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>139</v>
+      </c>
+      <c r="J42" t="n">
+        <v>331</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2945196775.947743</v>
+        <v>2552276703.799185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1653800513771648</v>
+        <v>0.1562579797329289</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01996316531507488</v>
+        <v>0.01765801712826756</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2085985596.445431</v>
+        <v>2036583751.751891</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1023198114826277</v>
+        <v>0.07823652088044671</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02783521300471875</v>
+        <v>0.03566901902560024</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1560267724.004127</v>
+        <v>1767484558.443681</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1354983791688672</v>
+        <v>0.1938704782381648</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05015399085651694</v>
+        <v>0.0497801506010665</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5236786340.22289</v>
+        <v>5348868276.246057</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1301056341745141</v>
+        <v>0.1147194495346092</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05171683053790364</v>
+        <v>0.05600705681614842</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>197</v>
+      </c>
+      <c r="J46" t="n">
+        <v>331</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4393760576.489978</v>
+        <v>4303643752.553265</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1703004782159746</v>
+        <v>0.1442814392378766</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05757637436886176</v>
+        <v>0.05443247400149279</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>148</v>
+      </c>
+      <c r="J47" t="n">
+        <v>330</v>
+      </c>
+      <c r="K47" t="n">
+        <v>61.67876567309791</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3085926107.712015</v>
+        <v>3374971963.445094</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07958726358445986</v>
+        <v>0.09442205239361956</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02814860523181177</v>
+        <v>0.03161679030659842</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>165</v>
+      </c>
+      <c r="J48" t="n">
+        <v>330</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.30406820032043</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1987940320.079452</v>
+        <v>1434220803.083045</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1654068677015927</v>
+        <v>0.1920540128775831</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03946816672286014</v>
+        <v>0.03983274952828086</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3363885547.21151</v>
+        <v>2682428693.087452</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1117002183588122</v>
+        <v>0.1765753025765881</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03984689551197638</v>
+        <v>0.05318982974584474</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>109</v>
+      </c>
+      <c r="J50" t="n">
+        <v>330</v>
+      </c>
+      <c r="K50" t="n">
+        <v>40.92858574962357</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1426140960.143767</v>
+        <v>1176812393.899552</v>
       </c>
       <c r="F51" t="n">
-        <v>0.181390858929917</v>
+        <v>0.16758970207672</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05277208206418613</v>
+        <v>0.04822936177680572</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4270922193.703834</v>
+        <v>3589472097.029042</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1166738355259851</v>
+        <v>0.1353952297607949</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04324409037651132</v>
+        <v>0.04045420356497993</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>200</v>
+      </c>
+      <c r="J52" t="n">
+        <v>330</v>
+      </c>
+      <c r="K52" t="n">
+        <v>67.16817426535987</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2991791878.992458</v>
+        <v>2619056904.451333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1400340702600716</v>
+        <v>0.1802689840718412</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02975538368312512</v>
+        <v>0.02891626326895855</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4031467414.115717</v>
+        <v>3243128825.555419</v>
       </c>
       <c r="F54" t="n">
-        <v>0.142399426217326</v>
+        <v>0.1131655969736083</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03807812506920016</v>
+        <v>0.0356808620845087</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>174</v>
+      </c>
+      <c r="J54" t="n">
+        <v>330</v>
+      </c>
+      <c r="K54" t="n">
+        <v>56.1942689354048</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4225210688.729181</v>
+        <v>3982042395.641653</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2196082634873016</v>
+        <v>0.1939141160428154</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02312584238648898</v>
+        <v>0.03032186779639442</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>156</v>
+      </c>
+      <c r="J55" t="n">
+        <v>331</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1236513502.25886</v>
+        <v>1808117573.713605</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1249859501056833</v>
+        <v>0.1372215357204507</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04728308863459428</v>
+        <v>0.04608410957637556</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3100273342.199634</v>
+        <v>3235334599.021968</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1561337472291828</v>
+        <v>0.119907371109103</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02616587931186597</v>
+        <v>0.02705423933218895</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>135</v>
+      </c>
+      <c r="J57" t="n">
+        <v>329</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1149277014.404822</v>
+        <v>1808558525.434556</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1683592592960729</v>
+        <v>0.1268309782386202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03903838761395428</v>
+        <v>0.03762545728626718</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4760274203.936749</v>
+        <v>4945022594.007604</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09487075359649903</v>
+        <v>0.09308607881408182</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03930499423428541</v>
+        <v>0.04970800764433447</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>159</v>
+      </c>
+      <c r="J59" t="n">
+        <v>331</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3512924265.126863</v>
+        <v>3060452485.577003</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1398398644276104</v>
+        <v>0.1480975665594185</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03254587933596726</v>
+        <v>0.02949820216194814</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>330</v>
+      </c>
+      <c r="K60" t="n">
+        <v>62.33384908877516</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2808044811.391407</v>
+        <v>3179749787.721922</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1219981871201846</v>
+        <v>0.1258151031122154</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03110803177323556</v>
+        <v>0.03170731691859349</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1454025094.640231</v>
+        <v>1320619691.013222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1400239060078645</v>
+        <v>0.1320600729453856</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03590407736212325</v>
+        <v>0.03687185992078551</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4666205820.801324</v>
+        <v>4440648697.924448</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06654863895737781</v>
+        <v>0.07329897638220897</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03700624588910401</v>
+        <v>0.03417674541481221</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>161</v>
+      </c>
+      <c r="J63" t="n">
+        <v>331</v>
+      </c>
+      <c r="K63" t="n">
+        <v>70.27451652269674</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5406469158.850432</v>
+        <v>4665062149.13981</v>
       </c>
       <c r="F64" t="n">
-        <v>0.154163823652623</v>
+        <v>0.1349260731989099</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02236072600198603</v>
+        <v>0.02692362427097428</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>163</v>
+      </c>
+      <c r="J64" t="n">
+        <v>331</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4685974255.339422</v>
+        <v>4096273467.985925</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1349344640625336</v>
+        <v>0.1481484856166321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02207051241416591</v>
+        <v>0.02239332824200699</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>259</v>
+      </c>
+      <c r="J65" t="n">
+        <v>330</v>
+      </c>
+      <c r="K65" t="n">
+        <v>69.4375347886614</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4988235850.254226</v>
+        <v>5234078951.103092</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1105117257702293</v>
+        <v>0.1161418056787261</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03117160689278407</v>
+        <v>0.04153203092180013</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>163</v>
+      </c>
+      <c r="J66" t="n">
+        <v>331</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2326261761.036334</v>
+        <v>2588062495.379185</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07427089733783149</v>
+        <v>0.09673604483275898</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0407673793451833</v>
+        <v>0.03232506640720764</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4443836218.270576</v>
+        <v>3918084102.76184</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09690720714529065</v>
+        <v>0.1048394306020712</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03633058302298691</v>
+        <v>0.03550305842656373</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>179</v>
+      </c>
+      <c r="J68" t="n">
+        <v>331</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2158527927.940832</v>
+        <v>2098602042.136987</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1623881764140262</v>
+        <v>0.1432417933643036</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03790423947372684</v>
+        <v>0.04542721258092346</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3724807326.840876</v>
+        <v>2878128481.276512</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09011153296726707</v>
+        <v>0.07458555506658673</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03844220214467009</v>
+        <v>0.04251607285405479</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3640491028.415551</v>
+        <v>4086510803.667329</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1497296053503386</v>
+        <v>0.162717940574973</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03293871330773855</v>
+        <v>0.03393930684163353</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>244</v>
+      </c>
+      <c r="J71" t="n">
+        <v>331</v>
+      </c>
+      <c r="K71" t="n">
+        <v>71.29220093174686</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1951755265.527905</v>
+        <v>2269578469.223158</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08654626603774458</v>
+        <v>0.09316843917701779</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0503168944896976</v>
+        <v>0.05034963989311482</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2878940791.463555</v>
+        <v>2158595417.5915</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07165574686014381</v>
+        <v>0.07465360894013284</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03206549401603992</v>
+        <v>0.03500265010113732</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2658996893.650587</v>
+        <v>2580211378.547495</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1258754056513581</v>
+        <v>0.1283208866554194</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03390489821004531</v>
+        <v>0.03042015489966443</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>87</v>
+      </c>
+      <c r="J74" t="n">
+        <v>328</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1882290258.722896</v>
+        <v>2475685532.628042</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1213599540289173</v>
+        <v>0.1140342270751908</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02739913675255583</v>
+        <v>0.02877779478506414</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3499953627.435963</v>
+        <v>3836504622.279706</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1198993007216434</v>
+        <v>0.1124796050710972</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02142674758883201</v>
+        <v>0.02924236790387354</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>156</v>
+      </c>
+      <c r="J76" t="n">
+        <v>330</v>
+      </c>
+      <c r="K76" t="n">
+        <v>67.0085641399529</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2124595360.956717</v>
+        <v>1631056621.950526</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1297610302312266</v>
+        <v>0.1242195876926141</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02564549130963406</v>
+        <v>0.02994718219913114</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4016699219.098974</v>
+        <v>3580801757.061725</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1196771239473423</v>
+        <v>0.1370853863527191</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04982021611704356</v>
+        <v>0.05428379914626373</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>163</v>
+      </c>
+      <c r="J78" t="n">
+        <v>330</v>
+      </c>
+      <c r="K78" t="n">
+        <v>68.54730837894232</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1866530349.215284</v>
+        <v>1666712362.765291</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1528517563260529</v>
+        <v>0.1142449340709474</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03857007236910867</v>
+        <v>0.03959750655062364</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4284837190.549626</v>
+        <v>4324404251.046408</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1065835569147653</v>
+        <v>0.08697579098578032</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02723844081633838</v>
+        <v>0.03274117843487577</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>162</v>
+      </c>
+      <c r="J80" t="n">
+        <v>330</v>
+      </c>
+      <c r="K80" t="n">
+        <v>54.42991143383749</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3620479328.781179</v>
+        <v>5206278071.772934</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1120851118736744</v>
+        <v>0.1255833495640855</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02342939574288898</v>
+        <v>0.02419999484216906</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>152</v>
+      </c>
+      <c r="J81" t="n">
+        <v>331</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5285115023.281098</v>
+        <v>3687873257.817217</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2066195255327131</v>
+        <v>0.1927168639527243</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02191487179664418</v>
+        <v>0.02643026232010134</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>238</v>
+      </c>
+      <c r="J82" t="n">
+        <v>330</v>
+      </c>
+      <c r="K82" t="n">
+        <v>70.26765738682494</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1916987696.891632</v>
+        <v>1803624556.020532</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1529772472155861</v>
+        <v>0.1126593087432952</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03772107768653764</v>
+        <v>0.03859811508996452</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1647904909.45336</v>
+        <v>1689201258.83192</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1121995795831953</v>
+        <v>0.09071395746061352</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04490941135777556</v>
+        <v>0.03586003115823355</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3252753305.433051</v>
+        <v>2371054055.665566</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1240698083973133</v>
+        <v>0.1498038708227671</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04432622088382542</v>
+        <v>0.04727410246636021</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2305533781.671119</v>
+        <v>2271660338.261249</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1554032390913417</v>
+        <v>0.1334145803586182</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01739590676386707</v>
+        <v>0.0167076757225718</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1370380344.839362</v>
+        <v>1227287380.00599</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1835429493327089</v>
+        <v>0.1440099515383575</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04216450530997107</v>
+        <v>0.03815828481512818</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3704104411.279898</v>
+        <v>3321011860.88608</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1400284562906746</v>
+        <v>0.1354740787303904</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03904728904542819</v>
+        <v>0.02552721064492894</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2288712154.840245</v>
+        <v>3150918459.28086</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1110470614621904</v>
+        <v>0.1141341044518275</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03181390506204634</v>
+        <v>0.04119695121297098</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>326</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2068143894.095221</v>
+        <v>1808668131.180028</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09364241449177327</v>
+        <v>0.129074878817431</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05307749374263118</v>
+        <v>0.05633274857215936</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1664046011.748128</v>
+        <v>1429008010.164519</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1407903605807381</v>
+        <v>0.1574117854750224</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05706345190183865</v>
+        <v>0.0495373543873506</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2139273535.024979</v>
+        <v>2618743102.224839</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09382978219633539</v>
+        <v>0.09719709024580696</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03390875775984507</v>
+        <v>0.03167428086635192</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3344804100.074792</v>
+        <v>4690170466.084562</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1249646747417067</v>
+        <v>0.1104319256652258</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03497662713018614</v>
+        <v>0.0422149941039749</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>151</v>
+      </c>
+      <c r="J93" t="n">
+        <v>331</v>
+      </c>
+      <c r="K93" t="n">
+        <v>71.92011466519425</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1551754875.650362</v>
+        <v>2344527372.16899</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1431071712734742</v>
+        <v>0.1354237598592427</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04329902970498255</v>
+        <v>0.03651045265341686</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3207612214.009244</v>
+        <v>2075309555.073914</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1260741430430623</v>
+        <v>0.1325646766621965</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04916948069989169</v>
+        <v>0.04502041910846687</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1464199792.910187</v>
+        <v>2374875902.734368</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08889215444263496</v>
+        <v>0.1368326582661079</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03518590979859102</v>
+        <v>0.03404145257415567</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5022745575.388292</v>
+        <v>3274812280.855531</v>
       </c>
       <c r="F97" t="n">
-        <v>0.138688741709997</v>
+        <v>0.1369747350319496</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02859030333666296</v>
+        <v>0.02225415840788606</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>169</v>
+      </c>
+      <c r="J97" t="n">
+        <v>331</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3061520795.044971</v>
+        <v>2908787312.393857</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0801902418989227</v>
+        <v>0.09444762224203243</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03194745339584384</v>
+        <v>0.02487010755148684</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>82</v>
+      </c>
+      <c r="J98" t="n">
+        <v>328</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2572000292.002961</v>
+        <v>2240204506.296974</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1437975979175125</v>
+        <v>0.1248157291457896</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03217179838776523</v>
+        <v>0.03095772667064422</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3137007614.668449</v>
+        <v>3407667580.652366</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1589511292461309</v>
+        <v>0.1419810732580095</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02770058499454263</v>
+        <v>0.02632049462866441</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>148</v>
+      </c>
+      <c r="J100" t="n">
+        <v>330</v>
+      </c>
+      <c r="K100" t="n">
+        <v>61.54613295059072</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2893153288.94141</v>
+        <v>3353146354.626924</v>
       </c>
       <c r="F101" t="n">
-        <v>0.183494674547406</v>
+        <v>0.2004343805392068</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05069503551365202</v>
+        <v>0.05461404525040271</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>30</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
